--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H2">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I2">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J2">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N2">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O2">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P2">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q2">
-        <v>704.9267579074526</v>
+        <v>1347.597890525439</v>
       </c>
       <c r="R2">
-        <v>2819.70703162981</v>
+        <v>5390.391562101756</v>
       </c>
       <c r="S2">
-        <v>0.006495482802096409</v>
+        <v>0.01104148411368249</v>
       </c>
       <c r="T2">
-        <v>0.003198233933555771</v>
+        <v>0.005587886148878469</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H3">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I3">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J3">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P3">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q3">
-        <v>2739.657005346126</v>
+        <v>3815.673885382068</v>
       </c>
       <c r="R3">
-        <v>16437.94203207676</v>
+        <v>22894.04331229241</v>
       </c>
       <c r="S3">
-        <v>0.0252443176007301</v>
+        <v>0.03126355635063523</v>
       </c>
       <c r="T3">
-        <v>0.01864462634418561</v>
+        <v>0.02373284130526166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H4">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I4">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J4">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N4">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O4">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P4">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q4">
-        <v>3770.67844297731</v>
+        <v>3899.53062485351</v>
       </c>
       <c r="R4">
-        <v>22624.07065786386</v>
+        <v>23397.18374912106</v>
       </c>
       <c r="S4">
-        <v>0.03474456984907118</v>
+        <v>0.03195063286152092</v>
       </c>
       <c r="T4">
-        <v>0.02566120156508626</v>
+        <v>0.0242544159340256</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H5">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I5">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J5">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N5">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O5">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P5">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q5">
-        <v>1209.029868171353</v>
+        <v>2080.917111220353</v>
       </c>
       <c r="R5">
-        <v>4836.119472685413</v>
+        <v>8323.668444881412</v>
       </c>
       <c r="S5">
-        <v>0.01114049456604531</v>
+        <v>0.01704990293244737</v>
       </c>
       <c r="T5">
-        <v>0.00548533632422524</v>
+        <v>0.008628633203201725</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H6">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I6">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J6">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N6">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O6">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P6">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q6">
-        <v>551.4544511806421</v>
+        <v>2060.956326669463</v>
       </c>
       <c r="R6">
-        <v>3308.726707083852</v>
+        <v>12365.73796001678</v>
       </c>
       <c r="S6">
-        <v>0.005081326341500059</v>
+        <v>0.01688635512114191</v>
       </c>
       <c r="T6">
-        <v>0.003752901245680586</v>
+        <v>0.01281879712658508</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H7">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I7">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J7">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N7">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O7">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P7">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q7">
-        <v>3731.483518582496</v>
+        <v>4902.621131769058</v>
       </c>
       <c r="R7">
-        <v>22388.90111149498</v>
+        <v>29415.72679061435</v>
       </c>
       <c r="S7">
-        <v>0.03438341182168728</v>
+        <v>0.04016941086240906</v>
       </c>
       <c r="T7">
-        <v>0.02539446207233082</v>
+        <v>0.03049346794175697</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>36.993797</v>
       </c>
       <c r="I8">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J8">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N8">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O8">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P8">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q8">
-        <v>184.8384585529184</v>
+        <v>253.707677118858</v>
       </c>
       <c r="R8">
-        <v>1109.03075131751</v>
+        <v>1522.246062713148</v>
       </c>
       <c r="S8">
-        <v>0.001703176982897442</v>
+        <v>0.002078742706650353</v>
       </c>
       <c r="T8">
-        <v>0.001257910748327054</v>
+        <v>0.001578018515171275</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>36.993797</v>
       </c>
       <c r="I9">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J9">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P9">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q9">
         <v>718.3639607256404</v>
@@ -1013,10 +1013,10 @@
         <v>6465.275646530763</v>
       </c>
       <c r="S9">
-        <v>0.006619298672092477</v>
+        <v>0.005885883553217432</v>
       </c>
       <c r="T9">
-        <v>0.007333195871265638</v>
+        <v>0.006702152119695781</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>36.993797</v>
       </c>
       <c r="I10">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J10">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N10">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O10">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P10">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q10">
-        <v>988.7075263926164</v>
+        <v>734.1513842082976</v>
       </c>
       <c r="R10">
-        <v>8898.367737533546</v>
+        <v>6607.362457874679</v>
       </c>
       <c r="S10">
-        <v>0.009110354603434786</v>
+        <v>0.006015237113953395</v>
       </c>
       <c r="T10">
-        <v>0.01009291438160089</v>
+        <v>0.00684944474508298</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>36.993797</v>
       </c>
       <c r="I11">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J11">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N11">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O11">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P11">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q11">
-        <v>317.0190586049087</v>
+        <v>391.767195746166</v>
       </c>
       <c r="R11">
-        <v>1902.114351629452</v>
+        <v>2350.603174476996</v>
       </c>
       <c r="S11">
-        <v>0.002921142969827968</v>
+        <v>0.003209927307326526</v>
       </c>
       <c r="T11">
-        <v>0.002157460543469474</v>
+        <v>0.002436725193122772</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>36.993797</v>
       </c>
       <c r="I12">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J12">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N12">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O12">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P12">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q12">
-        <v>144.5965691825213</v>
+        <v>388.0092466446712</v>
       </c>
       <c r="R12">
-        <v>1301.369122642692</v>
+        <v>3492.083219802041</v>
       </c>
       <c r="S12">
-        <v>0.001332371793000541</v>
+        <v>0.003179136716456721</v>
       </c>
       <c r="T12">
-        <v>0.00147606926585981</v>
+        <v>0.003620027085203869</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>36.993797</v>
       </c>
       <c r="I13">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J13">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N13">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O13">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P13">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q13">
-        <v>978.4302467646714</v>
+        <v>922.9998264912498</v>
       </c>
       <c r="R13">
-        <v>8805.872220882042</v>
+        <v>8306.998438421248</v>
       </c>
       <c r="S13">
-        <v>0.009015655555162289</v>
+        <v>0.00756255852935564</v>
       </c>
       <c r="T13">
-        <v>0.009988001957459572</v>
+        <v>0.008611352436651225</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H14">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I14">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J14">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N14">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O14">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P14">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q14">
-        <v>1934.375171988093</v>
+        <v>2552.902116135684</v>
       </c>
       <c r="R14">
-        <v>11606.25103192856</v>
+        <v>15317.4126968141</v>
       </c>
       <c r="S14">
-        <v>0.01782412218220906</v>
+        <v>0.02091709133509248</v>
       </c>
       <c r="T14">
-        <v>0.01316431298546121</v>
+        <v>0.01587861610035056</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H15">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I15">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J15">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P15">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q15">
-        <v>7517.837039746125</v>
+        <v>7228.448489688152</v>
       </c>
       <c r="R15">
-        <v>67660.53335771513</v>
+        <v>65056.03640719337</v>
       </c>
       <c r="S15">
-        <v>0.0692724182375913</v>
+        <v>0.0592259751418461</v>
       </c>
       <c r="T15">
-        <v>0.07674350963406625</v>
+        <v>0.06743957661564529</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H16">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I16">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J16">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N16">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O16">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P16">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q16">
-        <v>10347.04198674158</v>
+        <v>7387.30748550137</v>
       </c>
       <c r="R16">
-        <v>93123.37788067422</v>
+        <v>66485.76736951234</v>
       </c>
       <c r="S16">
-        <v>0.09534186711390664</v>
+        <v>0.06052757934508753</v>
       </c>
       <c r="T16">
-        <v>0.1056245715616637</v>
+        <v>0.06892169043779028</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H17">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I17">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J17">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N17">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O17">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P17">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q17">
-        <v>3317.674258989819</v>
+        <v>3942.108943689468</v>
       </c>
       <c r="R17">
-        <v>19906.04555393891</v>
+        <v>23652.65366213681</v>
       </c>
       <c r="S17">
-        <v>0.03057040444342946</v>
+        <v>0.03229949644636316</v>
       </c>
       <c r="T17">
-        <v>0.02257829968126726</v>
+        <v>0.02451924582104762</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H18">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I18">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J18">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N18">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O18">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P18">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q18">
-        <v>1513.234938070261</v>
+        <v>3904.295045732247</v>
       </c>
       <c r="R18">
-        <v>13619.11444263235</v>
+        <v>35138.65541159022</v>
       </c>
       <c r="S18">
-        <v>0.0139435642150177</v>
+        <v>0.0319896699346815</v>
       </c>
       <c r="T18">
-        <v>0.01544738991207536</v>
+        <v>0.03642607472991808</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H19">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I19">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J19">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N19">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O19">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P19">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q19">
-        <v>10239.4879922779</v>
+        <v>9287.571574503354</v>
       </c>
       <c r="R19">
-        <v>92155.39193050111</v>
+        <v>83588.14417053018</v>
       </c>
       <c r="S19">
-        <v>0.09435082072008068</v>
+        <v>0.07609730967639267</v>
       </c>
       <c r="T19">
-        <v>0.1045266399402855</v>
+        <v>0.08665066862765042</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H20">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I20">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J20">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N20">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O20">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P20">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q20">
-        <v>191.578498972385</v>
+        <v>359.049981538674</v>
       </c>
       <c r="R20">
-        <v>766.3139958895401</v>
+        <v>1436.199926154696</v>
       </c>
       <c r="S20">
-        <v>0.001765282465685525</v>
+        <v>0.002941860250042014</v>
       </c>
       <c r="T20">
-        <v>0.0008691865494962557</v>
+        <v>0.001488819797582751</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H21">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I21">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J21">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P21">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q21">
-        <v>744.5587373380671</v>
+        <v>1016.636822999071</v>
       </c>
       <c r="R21">
-        <v>4467.352424028402</v>
+        <v>6099.820937994426</v>
       </c>
       <c r="S21">
-        <v>0.006860668032926291</v>
+        <v>0.008329769146605066</v>
       </c>
       <c r="T21">
-        <v>0.005067064753681842</v>
+        <v>0.006323307785226621</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H22">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I22">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J22">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N22">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O22">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P22">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q22">
-        <v>1024.760243684723</v>
+        <v>1038.979363730843</v>
       </c>
       <c r="R22">
-        <v>6148.561462108338</v>
+        <v>6233.876182385057</v>
       </c>
       <c r="S22">
-        <v>0.00944255905235495</v>
+        <v>0.008512831772543859</v>
       </c>
       <c r="T22">
-        <v>0.006973964915533062</v>
+        <v>0.006462274580993653</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H23">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I23">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J23">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N23">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O23">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P23">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q23">
-        <v>328.578997404802</v>
+        <v>554.433377805198</v>
       </c>
       <c r="R23">
-        <v>1314.315989619208</v>
+        <v>2217.733511220792</v>
       </c>
       <c r="S23">
-        <v>0.003027660963116928</v>
+        <v>0.004542725523816669</v>
       </c>
       <c r="T23">
-        <v>0.001490754163557708</v>
+        <v>0.00229898741612425</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H24">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I24">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J24">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N24">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O24">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P24">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q24">
-        <v>149.869209565028</v>
+        <v>549.1150856240637</v>
       </c>
       <c r="R24">
-        <v>899.2152573901681</v>
+        <v>3294.690513744382</v>
       </c>
       <c r="S24">
-        <v>0.001380956053055977</v>
+        <v>0.004499150330472444</v>
       </c>
       <c r="T24">
-        <v>0.00101992892080495</v>
+        <v>0.003415402253155645</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H25">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I25">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J25">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N25">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O25">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P25">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q25">
-        <v>1014.108208280103</v>
+        <v>1306.239820668199</v>
       </c>
       <c r="R25">
-        <v>6084.649249680615</v>
+        <v>7837.438924009197</v>
       </c>
       <c r="S25">
-        <v>0.009344406851432086</v>
+        <v>0.0107026185852397</v>
       </c>
       <c r="T25">
-        <v>0.006901472913966211</v>
+        <v>0.00812458907699018</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H26">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I26">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J26">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N26">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O26">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P26">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q26">
-        <v>626.711713133275</v>
+        <v>2848.260415760089</v>
       </c>
       <c r="R26">
-        <v>3760.27027879965</v>
+        <v>17089.56249456053</v>
       </c>
       <c r="S26">
-        <v>0.005774777462858072</v>
+        <v>0.02333709658745716</v>
       </c>
       <c r="T26">
-        <v>0.004265061536569286</v>
+        <v>0.0177156943894654</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H27">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I27">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J27">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P27">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q27">
-        <v>2435.678765145505</v>
+        <v>8064.744656839519</v>
       </c>
       <c r="R27">
-        <v>21921.10888630955</v>
+        <v>72582.70191155568</v>
       </c>
       <c r="S27">
-        <v>0.02244333805315859</v>
+        <v>0.06607813104744414</v>
       </c>
       <c r="T27">
-        <v>0.02486387185439004</v>
+        <v>0.0752420060745302</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H28">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I28">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J28">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N28">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O28">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P28">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q28">
-        <v>3352.303370761345</v>
+        <v>8241.98286217545</v>
       </c>
       <c r="R28">
-        <v>30170.73033685211</v>
+        <v>74177.84575957904</v>
       </c>
       <c r="S28">
-        <v>0.03088949121016183</v>
+        <v>0.06753032449647903</v>
       </c>
       <c r="T28">
-        <v>0.0342209500778197</v>
+        <v>0.07689559322328328</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H29">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I29">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J29">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N29">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O29">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P29">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q29">
-        <v>1074.88213691903</v>
+        <v>4398.191684654376</v>
       </c>
       <c r="R29">
-        <v>6449.29282151418</v>
+        <v>26389.15010792626</v>
       </c>
       <c r="S29">
-        <v>0.009904402629520871</v>
+        <v>0.0360363903479448</v>
       </c>
       <c r="T29">
-        <v>0.007315067458367162</v>
+        <v>0.02735600274486557</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H30">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I30">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J30">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N30">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O30">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P30">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q30">
-        <v>490.26790363342</v>
+        <v>4356.002903487875</v>
       </c>
       <c r="R30">
-        <v>4412.41113270078</v>
+        <v>39204.02613139088</v>
       </c>
       <c r="S30">
-        <v>0.004517528524415617</v>
+        <v>0.0356907184228842</v>
       </c>
       <c r="T30">
-        <v>0.005004747959665192</v>
+        <v>0.04064039357364466</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H31">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I31">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J31">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N31">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O31">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P31">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q31">
-        <v>3317.457313439702</v>
+        <v>10362.09822029484</v>
       </c>
       <c r="R31">
-        <v>29857.11582095732</v>
+        <v>93258.88398265355</v>
       </c>
       <c r="S31">
-        <v>0.03056840541860317</v>
+        <v>0.08490139654284598</v>
       </c>
       <c r="T31">
-        <v>0.0338652349004842</v>
+        <v>0.09667572755388944</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H32">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I32">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J32">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N32">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O32">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P32">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q32">
-        <v>2377.973773189082</v>
+        <v>1721.696388151266</v>
       </c>
       <c r="R32">
-        <v>14267.84263913449</v>
+        <v>10330.1783289076</v>
       </c>
       <c r="S32">
-        <v>0.02191162070998282</v>
+        <v>0.0141066437191769</v>
       </c>
       <c r="T32">
-        <v>0.01618320555123001</v>
+        <v>0.01070865812520683</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H33">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I33">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J33">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P33">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q33">
-        <v>9241.85730385076</v>
+        <v>4874.920028454439</v>
       </c>
       <c r="R33">
-        <v>83176.71573465684</v>
+        <v>43874.28025608995</v>
       </c>
       <c r="S33">
-        <v>0.08515824446044487</v>
+        <v>0.03994244308935875</v>
       </c>
       <c r="T33">
-        <v>0.0943426362243531</v>
+        <v>0.04548175769988508</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H34">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I34">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J34">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N34">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O34">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P34">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q34">
-        <v>12719.86677189899</v>
+        <v>4982.055730049986</v>
       </c>
       <c r="R34">
-        <v>114478.8009470908</v>
+        <v>44838.50157044988</v>
       </c>
       <c r="S34">
-        <v>0.1172060429470525</v>
+        <v>0.04082025475372269</v>
       </c>
       <c r="T34">
-        <v>0.1298468180398645</v>
+        <v>0.04648130640889657</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H35">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I35">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J35">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N35">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O35">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P35">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q35">
-        <v>4078.496503733492</v>
+        <v>2658.587921233182</v>
       </c>
       <c r="R35">
-        <v>24470.97902240095</v>
+        <v>15951.52752739909</v>
       </c>
       <c r="S35">
-        <v>0.03758093107013145</v>
+        <v>0.02178302333619613</v>
       </c>
       <c r="T35">
-        <v>0.02775604508512966</v>
+        <v>0.01653596379722968</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H36">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I36">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J36">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N36">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O36">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P36">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q36">
-        <v>1860.255987315079</v>
+        <v>2633.085944042839</v>
       </c>
       <c r="R36">
-        <v>16742.30388583571</v>
+        <v>23697.77349638556</v>
       </c>
       <c r="S36">
-        <v>0.01714115776931302</v>
+        <v>0.02157407400643363</v>
       </c>
       <c r="T36">
-        <v>0.01898984675107632</v>
+        <v>0.02456601876767563</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H37">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I37">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J37">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N37">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O37">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P37">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q37">
-        <v>12587.64806803013</v>
+        <v>6263.608124044862</v>
       </c>
       <c r="R37">
-        <v>113288.8326122712</v>
+        <v>56372.47311640377</v>
       </c>
       <c r="S37">
-        <v>0.1159877258560047</v>
+        <v>0.05132059799307646</v>
       </c>
       <c r="T37">
-        <v>0.1284971043761448</v>
+        <v>0.0584378626443149</v>
       </c>
     </row>
   </sheetData>
